--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Psen1-Ncstn.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Psen1-Ncstn.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.916566</v>
+        <v>9.409481333333334</v>
       </c>
       <c r="H2">
-        <v>74.74969800000001</v>
+        <v>28.228444</v>
       </c>
       <c r="I2">
-        <v>0.4599128892550761</v>
+        <v>0.2433300530093958</v>
       </c>
       <c r="J2">
-        <v>0.459912889255076</v>
+        <v>0.2433300530093958</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.77057966666666</v>
+        <v>13.11484166666667</v>
       </c>
       <c r="N2">
-        <v>71.31173899999999</v>
+        <v>39.344525</v>
       </c>
       <c r="O2">
-        <v>0.3626243450559418</v>
+        <v>0.2389043281085165</v>
       </c>
       <c r="P2">
-        <v>0.3626243450559417</v>
+        <v>0.2389043281085165</v>
       </c>
       <c r="Q2">
-        <v>592.281217122758</v>
+        <v>123.4038578521222</v>
       </c>
       <c r="R2">
-        <v>5330.530954104822</v>
+        <v>1110.6347206691</v>
       </c>
       <c r="S2">
-        <v>0.1667756102489078</v>
+        <v>0.05813260282281942</v>
       </c>
       <c r="T2">
-        <v>0.1667756102489078</v>
+        <v>0.05813260282281942</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.916566</v>
+        <v>9.409481333333334</v>
       </c>
       <c r="H3">
-        <v>74.74969800000001</v>
+        <v>28.228444</v>
       </c>
       <c r="I3">
-        <v>0.4599128892550761</v>
+        <v>0.2433300530093958</v>
       </c>
       <c r="J3">
-        <v>0.459912889255076</v>
+        <v>0.2433300530093958</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>88.399283</v>
       </c>
       <c r="O3">
-        <v>0.4495155012457325</v>
+        <v>0.5367702700792449</v>
       </c>
       <c r="P3">
-        <v>0.4495155012457325</v>
+        <v>0.5367702700792449</v>
       </c>
       <c r="Q3">
-        <v>734.202189740726</v>
+        <v>277.2638010895169</v>
       </c>
       <c r="R3">
-        <v>6607.819707666535</v>
+        <v>2495.374209805652</v>
       </c>
       <c r="S3">
-        <v>0.2067379729428686</v>
+        <v>0.1306123382722504</v>
       </c>
       <c r="T3">
-        <v>0.2067379729428686</v>
+        <v>0.1306123382722504</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.916566</v>
+        <v>9.409481333333334</v>
       </c>
       <c r="H4">
-        <v>74.74969800000001</v>
+        <v>28.228444</v>
       </c>
       <c r="I4">
-        <v>0.4599128892550761</v>
+        <v>0.2433300530093958</v>
       </c>
       <c r="J4">
-        <v>0.459912889255076</v>
+        <v>0.2433300530093958</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>36.94356000000001</v>
       </c>
       <c r="O4">
-        <v>0.1878601536983258</v>
+        <v>0.2243254018122386</v>
       </c>
       <c r="P4">
-        <v>0.1878601536983258</v>
+        <v>0.2243254018122386</v>
       </c>
       <c r="Q4">
-        <v>306.8355503383201</v>
+        <v>115.87324606896</v>
       </c>
       <c r="R4">
-        <v>2761.519953044881</v>
+        <v>1042.85921462064</v>
       </c>
       <c r="S4">
-        <v>0.08639930606329968</v>
+        <v>0.05458511191432603</v>
       </c>
       <c r="T4">
-        <v>0.08639930606329965</v>
+        <v>0.05458511191432604</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>58.80901</v>
       </c>
       <c r="I5">
-        <v>0.3618345281251927</v>
+        <v>0.5069354697952918</v>
       </c>
       <c r="J5">
-        <v>0.3618345281251926</v>
+        <v>0.5069354697952919</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.77057966666666</v>
+        <v>13.11484166666667</v>
       </c>
       <c r="N5">
-        <v>71.31173899999999</v>
+        <v>39.344525</v>
       </c>
       <c r="O5">
-        <v>0.3626243450559418</v>
+        <v>0.2389043281085165</v>
       </c>
       <c r="P5">
-        <v>0.3626243450559417</v>
+        <v>0.2389043281085165</v>
       </c>
       <c r="Q5">
-        <v>465.9747524409321</v>
+        <v>257.0902849078056</v>
       </c>
       <c r="R5">
-        <v>4193.772771968389</v>
+        <v>2313.81256417025</v>
       </c>
       <c r="S5">
-        <v>0.1312100087800237</v>
+        <v>0.1211090778058194</v>
       </c>
       <c r="T5">
-        <v>0.1312100087800237</v>
+        <v>0.1211090778058194</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>58.80901</v>
       </c>
       <c r="I6">
-        <v>0.3618345281251927</v>
+        <v>0.5069354697952918</v>
       </c>
       <c r="J6">
-        <v>0.3618345281251926</v>
+        <v>0.5069354697952919</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>88.399283</v>
       </c>
       <c r="O6">
-        <v>0.4495155012457325</v>
+        <v>0.5367702700792449</v>
       </c>
       <c r="P6">
-        <v>0.4495155012457325</v>
+        <v>0.5367702700792449</v>
       </c>
       <c r="Q6">
         <v>577.6304797710922</v>
@@ -818,10 +818,10 @@
         <v>5198.67431793983</v>
       </c>
       <c r="S6">
-        <v>0.1626502292782091</v>
+        <v>0.2721078890347677</v>
       </c>
       <c r="T6">
-        <v>0.162650229278209</v>
+        <v>0.2721078890347677</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>58.80901</v>
       </c>
       <c r="I7">
-        <v>0.3618345281251927</v>
+        <v>0.5069354697952918</v>
       </c>
       <c r="J7">
-        <v>0.3618345281251926</v>
+        <v>0.5069354697952919</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>36.94356000000001</v>
       </c>
       <c r="O7">
-        <v>0.1878601536983258</v>
+        <v>0.2243254018122386</v>
       </c>
       <c r="P7">
-        <v>0.1878601536983258</v>
+        <v>0.2243254018122386</v>
       </c>
       <c r="Q7">
         <v>241.4015766084</v>
@@ -880,10 +880,10 @@
         <v>2172.6141894756</v>
       </c>
       <c r="S7">
-        <v>0.06797429006695987</v>
+        <v>0.1137185029547048</v>
       </c>
       <c r="T7">
-        <v>0.06797429006695986</v>
+        <v>0.1137185029547048</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.657138000000002</v>
+        <v>9.657138</v>
       </c>
       <c r="H8">
         <v>28.971414</v>
       </c>
       <c r="I8">
-        <v>0.1782525826197313</v>
+        <v>0.2497344771953123</v>
       </c>
       <c r="J8">
-        <v>0.1782525826197312</v>
+        <v>0.2497344771953124</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.77057966666666</v>
+        <v>13.11484166666667</v>
       </c>
       <c r="N8">
-        <v>71.31173899999999</v>
+        <v>39.344525</v>
       </c>
       <c r="O8">
-        <v>0.3626243450559418</v>
+        <v>0.2389043281085165</v>
       </c>
       <c r="P8">
-        <v>0.3626243450559417</v>
+        <v>0.2389043281085165</v>
       </c>
       <c r="Q8">
-        <v>229.555768180994</v>
+        <v>126.65183582315</v>
       </c>
       <c r="R8">
-        <v>2066.001913628946</v>
+        <v>1139.86652240835</v>
       </c>
       <c r="S8">
-        <v>0.06463872602701019</v>
+        <v>0.05966264747987773</v>
       </c>
       <c r="T8">
-        <v>0.06463872602701018</v>
+        <v>0.05966264747987774</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.657138000000002</v>
+        <v>9.657138</v>
       </c>
       <c r="H9">
         <v>28.971414</v>
       </c>
       <c r="I9">
-        <v>0.1782525826197313</v>
+        <v>0.2497344771953123</v>
       </c>
       <c r="J9">
-        <v>0.1782525826197312</v>
+        <v>0.2497344771953124</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>88.399283</v>
       </c>
       <c r="O9">
-        <v>0.4495155012457325</v>
+        <v>0.5367702700792449</v>
       </c>
       <c r="P9">
-        <v>0.4495155012457325</v>
+        <v>0.5367702700792449</v>
       </c>
       <c r="Q9">
-        <v>284.561358344018</v>
+        <v>284.5613583440179</v>
       </c>
       <c r="R9">
         <v>2561.052225096162</v>
       </c>
       <c r="S9">
-        <v>0.08012729902465483</v>
+        <v>0.1340500427722268</v>
       </c>
       <c r="T9">
-        <v>0.08012729902465482</v>
+        <v>0.1340500427722268</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.657138000000002</v>
+        <v>9.657138</v>
       </c>
       <c r="H10">
         <v>28.971414</v>
       </c>
       <c r="I10">
-        <v>0.1782525826197313</v>
+        <v>0.2497344771953123</v>
       </c>
       <c r="J10">
-        <v>0.1782525826197312</v>
+        <v>0.2497344771953124</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>36.94356000000001</v>
       </c>
       <c r="O10">
-        <v>0.1878601536983258</v>
+        <v>0.2243254018122386</v>
       </c>
       <c r="P10">
-        <v>0.1878601536983258</v>
+        <v>0.2243254018122386</v>
       </c>
       <c r="Q10">
         <v>118.92301904376</v>
@@ -1066,10 +1066,10 @@
         <v>1070.30717139384</v>
       </c>
       <c r="S10">
-        <v>0.03348655756806623</v>
+        <v>0.05602178694320777</v>
       </c>
       <c r="T10">
-        <v>0.03348655756806622</v>
+        <v>0.05602178694320779</v>
       </c>
     </row>
   </sheetData>
